--- a/file/archives/ranking - 3.xlsx
+++ b/file/archives/ranking - 3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\archives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEF5EB8-D7F3-47F5-A7A8-E52EB6F4B548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4A2E28-4C42-430E-9916-D180EE5F256B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="240">
   <si>
     <t>Team</t>
   </si>
@@ -1116,15 +1116,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O165"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,11 +1164,8 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1208,11 +1205,8 @@
       <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1252,11 +1246,8 @@
       <c r="M3" t="s">
         <v>19</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1296,11 +1287,8 @@
       <c r="M4" t="s">
         <v>22</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1340,11 +1328,8 @@
       <c r="M5" t="s">
         <v>25</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1384,11 +1369,8 @@
       <c r="M6" t="s">
         <v>27</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1428,11 +1410,8 @@
       <c r="M7" t="s">
         <v>29</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1472,11 +1451,8 @@
       <c r="M8" t="s">
         <v>31</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1516,11 +1492,8 @@
       <c r="M9" t="s">
         <v>33</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1560,11 +1533,8 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1604,11 +1574,8 @@
       <c r="M11" t="s">
         <v>37</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1648,11 +1615,8 @@
       <c r="M12" t="s">
         <v>39</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1692,11 +1656,8 @@
       <c r="M13" t="s">
         <v>41</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1736,11 +1697,8 @@
       <c r="M14" t="s">
         <v>43</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1780,11 +1738,8 @@
       <c r="M15" t="s">
         <v>45</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1824,11 +1779,8 @@
       <c r="M16" t="s">
         <v>47</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1868,11 +1820,8 @@
       <c r="M17" t="s">
         <v>49</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1912,11 +1861,8 @@
       <c r="M18" t="s">
         <v>51</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1956,11 +1902,8 @@
       <c r="M19" t="s">
         <v>53</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2000,11 +1943,8 @@
       <c r="M20" t="s">
         <v>55</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -2044,11 +1984,8 @@
       <c r="M21" t="s">
         <v>57</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -2088,11 +2025,8 @@
       <c r="M22" t="s">
         <v>59</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -2132,11 +2066,8 @@
       <c r="M23" t="s">
         <v>61</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -2176,11 +2107,8 @@
       <c r="M24" t="s">
         <v>63</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -2220,11 +2148,8 @@
       <c r="M25" t="s">
         <v>65</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -2264,11 +2189,8 @@
       <c r="M26" t="s">
         <v>67</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -2308,11 +2230,8 @@
       <c r="M27" t="s">
         <v>69</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -2352,11 +2271,8 @@
       <c r="M28" t="s">
         <v>71</v>
       </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -2396,11 +2312,8 @@
       <c r="M29" t="s">
         <v>73</v>
       </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -2440,11 +2353,8 @@
       <c r="M30" t="s">
         <v>75</v>
       </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2484,11 +2394,8 @@
       <c r="M31" t="s">
         <v>77</v>
       </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -2528,11 +2435,8 @@
       <c r="M32" t="s">
         <v>79</v>
       </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -2572,11 +2476,8 @@
       <c r="M33" t="s">
         <v>81</v>
       </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -2616,11 +2517,8 @@
       <c r="M34" t="s">
         <v>83</v>
       </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -2660,11 +2558,8 @@
       <c r="M35" t="s">
         <v>85</v>
       </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -2704,11 +2599,8 @@
       <c r="M36" t="s">
         <v>87</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -2748,11 +2640,8 @@
       <c r="M37" t="s">
         <v>89</v>
       </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -2792,11 +2681,8 @@
       <c r="M38" t="s">
         <v>91</v>
       </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -2836,11 +2722,8 @@
       <c r="M39" t="s">
         <v>93</v>
       </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -2880,11 +2763,8 @@
       <c r="M40" t="s">
         <v>95</v>
       </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -2924,11 +2804,8 @@
       <c r="M41" t="s">
         <v>97</v>
       </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -2968,11 +2845,8 @@
       <c r="M42" t="s">
         <v>99</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -3012,11 +2886,8 @@
       <c r="M43" t="s">
         <v>101</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -3056,11 +2927,8 @@
       <c r="M44" t="s">
         <v>103</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -3100,11 +2968,8 @@
       <c r="M45" t="s">
         <v>105</v>
       </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -3144,11 +3009,8 @@
       <c r="M46" t="s">
         <v>107</v>
       </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -3188,11 +3050,8 @@
       <c r="M47" t="s">
         <v>109</v>
       </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>110</v>
       </c>
@@ -3232,11 +3091,8 @@
       <c r="M48" t="s">
         <v>111</v>
       </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>112</v>
       </c>
@@ -3276,11 +3132,8 @@
       <c r="M49" t="s">
         <v>113</v>
       </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -3320,11 +3173,8 @@
       <c r="M50" t="s">
         <v>115</v>
       </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>116</v>
       </c>
@@ -3364,11 +3214,8 @@
       <c r="M51" t="s">
         <v>117</v>
       </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -3408,11 +3255,8 @@
       <c r="M52" t="s">
         <v>119</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>120</v>
       </c>
@@ -3452,11 +3296,8 @@
       <c r="M53" t="s">
         <v>121</v>
       </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -3496,11 +3337,8 @@
       <c r="M54" t="s">
         <v>123</v>
       </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -3540,11 +3378,8 @@
       <c r="M55" t="s">
         <v>125</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>126</v>
       </c>
@@ -3584,11 +3419,8 @@
       <c r="M56" t="s">
         <v>127</v>
       </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>128</v>
       </c>
@@ -3628,11 +3460,8 @@
       <c r="M57" t="s">
         <v>129</v>
       </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>130</v>
       </c>
@@ -3672,11 +3501,8 @@
       <c r="M58" t="s">
         <v>131</v>
       </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -3716,11 +3542,8 @@
       <c r="M59" t="s">
         <v>131</v>
       </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>133</v>
       </c>
@@ -3760,11 +3583,8 @@
       <c r="M60" t="s">
         <v>131</v>
       </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -3804,11 +3624,8 @@
       <c r="M61" t="s">
         <v>131</v>
       </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>135</v>
       </c>
@@ -3848,11 +3665,8 @@
       <c r="M62" t="s">
         <v>131</v>
       </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>136</v>
       </c>
@@ -3892,11 +3706,8 @@
       <c r="M63" t="s">
         <v>131</v>
       </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>137</v>
       </c>
@@ -3936,11 +3747,8 @@
       <c r="M64" t="s">
         <v>131</v>
       </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>138</v>
       </c>
@@ -3980,11 +3788,8 @@
       <c r="M65" t="s">
         <v>131</v>
       </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -4024,11 +3829,8 @@
       <c r="M66" t="s">
         <v>131</v>
       </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -4068,11 +3870,8 @@
       <c r="M67" t="s">
         <v>131</v>
       </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>141</v>
       </c>
@@ -4112,11 +3911,8 @@
       <c r="M68" t="s">
         <v>131</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -4156,11 +3952,8 @@
       <c r="M69" t="s">
         <v>131</v>
       </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -4200,11 +3993,8 @@
       <c r="M70" t="s">
         <v>131</v>
       </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -4244,11 +4034,8 @@
       <c r="M71" t="s">
         <v>131</v>
       </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>145</v>
       </c>
@@ -4288,11 +4075,8 @@
       <c r="M72" t="s">
         <v>131</v>
       </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>146</v>
       </c>
@@ -4332,11 +4116,8 @@
       <c r="M73" t="s">
         <v>131</v>
       </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -4376,11 +4157,8 @@
       <c r="M74" t="s">
         <v>131</v>
       </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -4420,11 +4198,8 @@
       <c r="M75" t="s">
         <v>131</v>
       </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -4464,11 +4239,8 @@
       <c r="M76" t="s">
         <v>131</v>
       </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -4508,11 +4280,8 @@
       <c r="M77" t="s">
         <v>131</v>
       </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -4552,11 +4321,8 @@
       <c r="M78" t="s">
         <v>131</v>
       </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -4596,11 +4362,8 @@
       <c r="M79" t="s">
         <v>131</v>
       </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -4640,11 +4403,8 @@
       <c r="M80" t="s">
         <v>131</v>
       </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>154</v>
       </c>
@@ -4684,11 +4444,8 @@
       <c r="M81" t="s">
         <v>131</v>
       </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -4728,11 +4485,8 @@
       <c r="M82" t="s">
         <v>131</v>
       </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -4772,11 +4526,8 @@
       <c r="M83" t="s">
         <v>131</v>
       </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>157</v>
       </c>
@@ -4816,11 +4567,8 @@
       <c r="M84" t="s">
         <v>131</v>
       </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>158</v>
       </c>
@@ -4860,11 +4608,8 @@
       <c r="M85" t="s">
         <v>131</v>
       </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>159</v>
       </c>
@@ -4904,11 +4649,8 @@
       <c r="M86" t="s">
         <v>131</v>
       </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>160</v>
       </c>
@@ -4948,11 +4690,8 @@
       <c r="M87" t="s">
         <v>131</v>
       </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>161</v>
       </c>
@@ -4992,11 +4731,8 @@
       <c r="M88" t="s">
         <v>131</v>
       </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>162</v>
       </c>
@@ -5036,11 +4772,8 @@
       <c r="M89" t="s">
         <v>131</v>
       </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>163</v>
       </c>
@@ -5080,11 +4813,8 @@
       <c r="M90" t="s">
         <v>131</v>
       </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>164</v>
       </c>
@@ -5124,11 +4854,8 @@
       <c r="M91" t="s">
         <v>131</v>
       </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>165</v>
       </c>
@@ -5168,11 +4895,8 @@
       <c r="M92" t="s">
         <v>131</v>
       </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>166</v>
       </c>
@@ -5212,11 +4936,8 @@
       <c r="M93" t="s">
         <v>131</v>
       </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>167</v>
       </c>
@@ -5256,11 +4977,8 @@
       <c r="M94" t="s">
         <v>131</v>
       </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>168</v>
       </c>
@@ -5300,11 +5018,8 @@
       <c r="M95" t="s">
         <v>131</v>
       </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>169</v>
       </c>
@@ -5344,11 +5059,8 @@
       <c r="M96" t="s">
         <v>131</v>
       </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>170</v>
       </c>
@@ -5388,11 +5100,8 @@
       <c r="M97" t="s">
         <v>131</v>
       </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>171</v>
       </c>
@@ -5432,11 +5141,8 @@
       <c r="M98" t="s">
         <v>131</v>
       </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>172</v>
       </c>
@@ -5476,11 +5182,8 @@
       <c r="M99" t="s">
         <v>131</v>
       </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>173</v>
       </c>
@@ -5520,11 +5223,8 @@
       <c r="M100" t="s">
         <v>131</v>
       </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>174</v>
       </c>
@@ -5564,11 +5264,8 @@
       <c r="M101" t="s">
         <v>131</v>
       </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>175</v>
       </c>
@@ -5608,11 +5305,8 @@
       <c r="M102" t="s">
         <v>131</v>
       </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>176</v>
       </c>
@@ -5652,11 +5346,8 @@
       <c r="M103" t="s">
         <v>131</v>
       </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>177</v>
       </c>
@@ -5696,11 +5387,8 @@
       <c r="M104" t="s">
         <v>131</v>
       </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>178</v>
       </c>
@@ -5740,11 +5428,8 @@
       <c r="M105" t="s">
         <v>131</v>
       </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>179</v>
       </c>
@@ -5784,11 +5469,8 @@
       <c r="M106" t="s">
         <v>131</v>
       </c>
-      <c r="O106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>180</v>
       </c>
@@ -5828,11 +5510,8 @@
       <c r="M107" t="s">
         <v>131</v>
       </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>181</v>
       </c>
@@ -5872,11 +5551,8 @@
       <c r="M108" t="s">
         <v>131</v>
       </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>182</v>
       </c>
@@ -5916,11 +5592,8 @@
       <c r="M109" t="s">
         <v>131</v>
       </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>183</v>
       </c>
@@ -5960,11 +5633,8 @@
       <c r="M110" t="s">
         <v>129</v>
       </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>184</v>
       </c>
@@ -6004,11 +5674,8 @@
       <c r="M111" t="s">
         <v>127</v>
       </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>185</v>
       </c>
@@ -6048,11 +5715,8 @@
       <c r="M112" t="s">
         <v>125</v>
       </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>186</v>
       </c>
@@ -6092,11 +5756,8 @@
       <c r="M113" t="s">
         <v>123</v>
       </c>
-      <c r="O113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>187</v>
       </c>
@@ -6136,11 +5797,8 @@
       <c r="M114" t="s">
         <v>121</v>
       </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>188</v>
       </c>
@@ -6180,11 +5838,8 @@
       <c r="M115" t="s">
         <v>119</v>
       </c>
-      <c r="O115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>189</v>
       </c>
@@ -6224,11 +5879,8 @@
       <c r="M116" t="s">
         <v>117</v>
       </c>
-      <c r="O116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>190</v>
       </c>
@@ -6268,11 +5920,8 @@
       <c r="M117" t="s">
         <v>115</v>
       </c>
-      <c r="O117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>191</v>
       </c>
@@ -6312,11 +5961,8 @@
       <c r="M118" t="s">
         <v>113</v>
       </c>
-      <c r="O118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>192</v>
       </c>
@@ -6356,11 +6002,8 @@
       <c r="M119" t="s">
         <v>111</v>
       </c>
-      <c r="O119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>193</v>
       </c>
@@ -6400,11 +6043,8 @@
       <c r="M120" t="s">
         <v>109</v>
       </c>
-      <c r="O120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>194</v>
       </c>
@@ -6444,11 +6084,8 @@
       <c r="M121" t="s">
         <v>107</v>
       </c>
-      <c r="O121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>195</v>
       </c>
@@ -6488,11 +6125,8 @@
       <c r="M122" t="s">
         <v>105</v>
       </c>
-      <c r="O122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>196</v>
       </c>
@@ -6532,11 +6166,8 @@
       <c r="M123" t="s">
         <v>103</v>
       </c>
-      <c r="O123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>197</v>
       </c>
@@ -6576,11 +6207,8 @@
       <c r="M124" t="s">
         <v>101</v>
       </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>198</v>
       </c>
@@ -6620,11 +6248,8 @@
       <c r="M125" t="s">
         <v>99</v>
       </c>
-      <c r="O125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>199</v>
       </c>
@@ -6664,11 +6289,8 @@
       <c r="M126" t="s">
         <v>97</v>
       </c>
-      <c r="O126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>200</v>
       </c>
@@ -6708,11 +6330,8 @@
       <c r="M127" t="s">
         <v>95</v>
       </c>
-      <c r="O127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>201</v>
       </c>
@@ -6752,11 +6371,8 @@
       <c r="M128" t="s">
         <v>93</v>
       </c>
-      <c r="O128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>202</v>
       </c>
@@ -6796,11 +6412,8 @@
       <c r="M129" t="s">
         <v>91</v>
       </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>203</v>
       </c>
@@ -6840,11 +6453,8 @@
       <c r="M130" t="s">
         <v>89</v>
       </c>
-      <c r="O130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>204</v>
       </c>
@@ -6884,11 +6494,8 @@
       <c r="M131" t="s">
         <v>87</v>
       </c>
-      <c r="O131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>205</v>
       </c>
@@ -6928,11 +6535,8 @@
       <c r="M132" t="s">
         <v>85</v>
       </c>
-      <c r="O132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>206</v>
       </c>
@@ -6972,11 +6576,8 @@
       <c r="M133" t="s">
         <v>83</v>
       </c>
-      <c r="O133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>207</v>
       </c>
@@ -7016,11 +6617,8 @@
       <c r="M134" t="s">
         <v>81</v>
       </c>
-      <c r="O134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>208</v>
       </c>
@@ -7060,11 +6658,8 @@
       <c r="M135" t="s">
         <v>79</v>
       </c>
-      <c r="O135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>209</v>
       </c>
@@ -7104,11 +6699,8 @@
       <c r="M136" t="s">
         <v>77</v>
       </c>
-      <c r="O136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>210</v>
       </c>
@@ -7148,11 +6740,8 @@
       <c r="M137" t="s">
         <v>75</v>
       </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>211</v>
       </c>
@@ -7192,11 +6781,8 @@
       <c r="M138" t="s">
         <v>73</v>
       </c>
-      <c r="O138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>212</v>
       </c>
@@ -7236,11 +6822,8 @@
       <c r="M139" t="s">
         <v>71</v>
       </c>
-      <c r="O139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>213</v>
       </c>
@@ -7280,11 +6863,8 @@
       <c r="M140" t="s">
         <v>69</v>
       </c>
-      <c r="O140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>214</v>
       </c>
@@ -7324,11 +6904,8 @@
       <c r="M141" t="s">
         <v>67</v>
       </c>
-      <c r="O141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>215</v>
       </c>
@@ -7368,11 +6945,8 @@
       <c r="M142" t="s">
         <v>65</v>
       </c>
-      <c r="O142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>216</v>
       </c>
@@ -7412,11 +6986,8 @@
       <c r="M143" t="s">
         <v>63</v>
       </c>
-      <c r="O143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>217</v>
       </c>
@@ -7456,11 +7027,8 @@
       <c r="M144" t="s">
         <v>61</v>
       </c>
-      <c r="O144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>218</v>
       </c>
@@ -7500,11 +7068,8 @@
       <c r="M145" t="s">
         <v>59</v>
       </c>
-      <c r="O145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>219</v>
       </c>
@@ -7544,11 +7109,8 @@
       <c r="M146" t="s">
         <v>57</v>
       </c>
-      <c r="O146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>220</v>
       </c>
@@ -7588,11 +7150,8 @@
       <c r="M147" t="s">
         <v>55</v>
       </c>
-      <c r="O147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>221</v>
       </c>
@@ -7632,11 +7191,8 @@
       <c r="M148" t="s">
         <v>53</v>
       </c>
-      <c r="O148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>222</v>
       </c>
@@ -7676,11 +7232,8 @@
       <c r="M149" t="s">
         <v>51</v>
       </c>
-      <c r="O149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>223</v>
       </c>
@@ -7720,11 +7273,8 @@
       <c r="M150" t="s">
         <v>49</v>
       </c>
-      <c r="O150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>224</v>
       </c>
@@ -7764,11 +7314,8 @@
       <c r="M151" t="s">
         <v>47</v>
       </c>
-      <c r="O151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>225</v>
       </c>
@@ -7808,11 +7355,8 @@
       <c r="M152" t="s">
         <v>45</v>
       </c>
-      <c r="O152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>226</v>
       </c>
@@ -7852,11 +7396,8 @@
       <c r="M153" t="s">
         <v>43</v>
       </c>
-      <c r="O153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>227</v>
       </c>
@@ -7896,11 +7437,8 @@
       <c r="M154" t="s">
         <v>41</v>
       </c>
-      <c r="O154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>228</v>
       </c>
@@ -7940,11 +7478,8 @@
       <c r="M155" t="s">
         <v>39</v>
       </c>
-      <c r="O155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>229</v>
       </c>
@@ -7984,11 +7519,8 @@
       <c r="M156" t="s">
         <v>37</v>
       </c>
-      <c r="O156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>230</v>
       </c>
@@ -8028,11 +7560,8 @@
       <c r="M157" t="s">
         <v>35</v>
       </c>
-      <c r="O157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>231</v>
       </c>
@@ -8072,11 +7601,8 @@
       <c r="M158" t="s">
         <v>33</v>
       </c>
-      <c r="O158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>232</v>
       </c>
@@ -8116,11 +7642,8 @@
       <c r="M159" t="s">
         <v>31</v>
       </c>
-      <c r="O159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>233</v>
       </c>
@@ -8160,11 +7683,8 @@
       <c r="M160" t="s">
         <v>29</v>
       </c>
-      <c r="O160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>234</v>
       </c>
@@ -8204,11 +7724,8 @@
       <c r="M161" t="s">
         <v>27</v>
       </c>
-      <c r="O161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>235</v>
       </c>
@@ -8248,11 +7765,8 @@
       <c r="M162" t="s">
         <v>25</v>
       </c>
-      <c r="O162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>236</v>
       </c>
@@ -8292,11 +7806,8 @@
       <c r="M163" t="s">
         <v>22</v>
       </c>
-      <c r="O163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>237</v>
       </c>
@@ -8336,11 +7847,8 @@
       <c r="M164" t="s">
         <v>19</v>
       </c>
-      <c r="O164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>238</v>
       </c>
@@ -8379,9 +7887,6 @@
       </c>
       <c r="M165" t="s">
         <v>239</v>
-      </c>
-      <c r="O165">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
